--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -510,13 +510,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Chemie FK</t>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -555,13 +555,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Knekken</t>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -668,13 +668,17 @@
           <t>MiT Fotball</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Knekken</t>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -767,13 +767,17 @@
           <t>Chemie FK</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>MiT Fotball</t>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -556,15 +556,15 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -863,19 +863,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Knekken</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Chemie FK</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Knekken</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">

--- a/Scripts/Kamper/V24/E-sluttspill.xlsx
+++ b/Scripts/Kamper/V24/E-sluttspill.xlsx
@@ -965,13 +965,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>MiT Fotball</t>
